--- a/data/human/adult/validation/Scenarios/BagValveMaskValidation.xlsx
+++ b/data/human/adult/validation/Scenarios/BagValveMaskValidation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\Source\Pulse\respiratory-mechanics-source\data\human\adult\validation\Scenarios\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C5AB6F1-7C83-45FE-B2EB-6EEA596B86F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6188254D-F743-4382-AADA-E7822534F33E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5205" yWindow="6990" windowWidth="21930" windowHeight="23535" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3705" yWindow="7260" windowWidth="21930" windowHeight="23535" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Scenarios" sheetId="35" r:id="rId1"/>
@@ -1044,8 +1044,8 @@
   </sheetPr>
   <dimension ref="A1:Q9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="K19" sqref="K19"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/data/human/adult/validation/Scenarios/BagValveMaskValidation.xlsx
+++ b/data/human/adult/validation/Scenarios/BagValveMaskValidation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\Source\Pulse\respiratory-mechanics-source\data\human\adult\validation\Scenarios\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6188254D-F743-4382-AADA-E7822534F33E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F13E8EF-8D59-434C-95B6-7A017875744C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3705" yWindow="7260" windowWidth="21930" windowHeight="23535" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="16395" yWindow="6870" windowWidth="39945" windowHeight="23535" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Scenarios" sheetId="35" r:id="rId1"/>
@@ -77,26 +77,9 @@
     <t>Dyspnea: severity = 1.0 (apnea)</t>
   </si>
   <si>
-    <t>Oropharyngeal intubation; 
-Automated BVM:
-Comment: Automate a squeeze pressure to give TV ~ 7 mL/kg(ideal), 
-BreathFrequency: 12(1/min), 
-InspiratoryExpiratoryRatio: 0.5, 
-SqueezePressure: 9.3(cmH2O),
-SqueezeVolume: NaN</t>
-  </si>
-  <si>
     <t>Remove SqueezePressure and apply SqueezeVolume: 0.54(L)</t>
   </si>
   <si>
-    <t>Remove intubation and attach mask; 
-PEEP: 5(cmH2O)
-BreathFrequency: 12(1/min), 
-InspiratoryExpiratoryRatio: 0.5, 
-SqueezePressure: 12.3(cmH2O),
-SqueezeVolume: NaN</t>
-  </si>
-  <si>
     <t>Attach oxygen to the reservoir with FiO2 = 0.3</t>
   </si>
   <si>
@@ -119,6 +102,12 @@
   </si>
   <si>
     <t>No change</t>
+  </si>
+  <si>
+    <t>Oropharyngeal intubation; Automated BVM: Comment: Automate a squeeze pressure to give TV ~ 7 mL/kg(ideal),  BreathFrequency: 12(1/min),  InspiratoryExpiratoryRatio: 0.5,  SqueezePressure: 9.3(cmH2O), SqueezeVolume: NaN</t>
+  </si>
+  <si>
+    <t>Remove intubation and attach mask; PEEP: 5(cmH2O) BreathFrequency: 12(1/min), InspiratoryExpiratoryRatio: 0.5, SqueezePressure: 12.3(cmH2O), SqueezeVolume: NaN</t>
   </si>
 </sst>
 </file>
@@ -1045,13 +1034,13 @@
   <dimension ref="A1:Q9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="2" style="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="53" style="5" customWidth="1"/>
+    <col min="2" max="2" width="58" style="5" customWidth="1"/>
     <col min="3" max="3" width="2" style="6" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="26.28515625" style="5" customWidth="1"/>
     <col min="5" max="5" width="2" style="6" bestFit="1" customWidth="1"/>
@@ -1064,7 +1053,7 @@
     <col min="12" max="12" width="29.42578125" style="6" customWidth="1"/>
     <col min="13" max="13" width="33.85546875" style="6" bestFit="1" customWidth="1"/>
     <col min="14" max="16" width="33.85546875" style="6" customWidth="1"/>
-    <col min="17" max="17" width="9" style="6" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9.7109375" style="6" bestFit="1" customWidth="1"/>
     <col min="18" max="16384" width="9.140625" style="5"/>
   </cols>
   <sheetData>
@@ -1197,42 +1186,42 @@
         <v>1</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I3" s="4" t="s">
         <v>2</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="K3" s="4" t="s">
         <v>2</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="M3" s="4" t="s">
         <v>2</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="O3" s="4" t="s">
         <v>2</v>
       </c>
       <c r="P3" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="Q3" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:17" ht="120" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" ht="60" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>0</v>
@@ -1250,42 +1239,42 @@
         <v>1</v>
       </c>
       <c r="H4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="J4" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="I4" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="J4" s="2" t="s">
+      <c r="K4" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="M4" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="N4" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="K4" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="L4" s="2" t="s">
+      <c r="O4" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="P4" s="2" t="s">
         <v>20</v>
-      </c>
-      <c r="M4" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="N4" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="O4" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="P4" s="2" t="s">
-        <v>22</v>
       </c>
       <c r="Q4" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>0</v>
@@ -1303,42 +1292,42 @@
         <v>1</v>
       </c>
       <c r="H5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="J5" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="I5" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>21</v>
-      </c>
       <c r="K5" s="4" t="s">
         <v>2</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="M5" s="4" t="s">
         <v>2</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="O5" s="4" t="s">
         <v>2</v>
       </c>
       <c r="P5" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="Q5" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:17" ht="90" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>0</v>
@@ -1354,42 +1343,42 @@
         <v>1</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="I6" s="4" t="s">
         <v>2</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="K6" s="4" t="s">
         <v>2</v>
       </c>
       <c r="L6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="M6" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="N6" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="M6" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="N6" s="2" t="s">
-        <v>22</v>
-      </c>
       <c r="O6" s="4" t="s">
         <v>2</v>
       </c>
       <c r="P6" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="Q6" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>0</v>
@@ -1407,31 +1396,31 @@
         <v>1</v>
       </c>
       <c r="H7" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="J7" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="I7" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="J7" s="2" t="s">
+      <c r="K7" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="M7" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="N7" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="K7" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="L7" s="2" t="s">
+      <c r="O7" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="P7" s="2" t="s">
         <v>20</v>
-      </c>
-      <c r="M7" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="N7" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="O7" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="P7" s="2" t="s">
-        <v>22</v>
       </c>
       <c r="Q7" s="4" t="s">
         <v>3</v>
@@ -1442,7 +1431,7 @@
         <v>0</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>0</v>
@@ -1460,31 +1449,31 @@
         <v>1</v>
       </c>
       <c r="H8" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="J8" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="I8" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="J8" s="2" t="s">
+      <c r="K8" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="M8" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="N8" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="K8" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="L8" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="M8" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="N8" s="2" t="s">
-        <v>23</v>
-      </c>
       <c r="O8" s="4" t="s">
         <v>2</v>
       </c>
       <c r="P8" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="Q8" s="4" t="s">
         <v>3</v>
